--- a/data/sample-spring-kafka-microservices/base-domain_structure.xlsx
+++ b/data/sample-spring-kafka-microservices/base-domain_structure.xlsx
@@ -157,28 +157,28 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>productId</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>productCount</t>
+  </si>
+  <si>
     <t>customerId</t>
-  </si>
-  <si>
-    <t>private</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>productId</t>
-  </si>
-  <si>
-    <t>productCount</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -691,7 +691,7 @@
         <v>46</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -719,7 +719,7 @@
         <v>46</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -747,7 +747,7 @@
         <v>46</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -761,7 +761,7 @@
         <v>46</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -775,7 +775,7 @@
         <v>46</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/sample-spring-kafka-microservices/base-domain_structure.xlsx
+++ b/data/sample-spring-kafka-microservices/base-domain_structure.xlsx
@@ -15,12 +15,14 @@
     <sheet name="interfaceToInterfaceRelations" r:id="rId9" sheetId="7"/>
     <sheet name="fieldClassRelations" r:id="rId10" sheetId="8"/>
     <sheet name="fieldInterfaceRelations" r:id="rId11" sheetId="9"/>
+    <sheet name="classNumberOfLines" r:id="rId12" sheetId="10"/>
+    <sheet name="methodNumberOfLines" r:id="rId13" sheetId="11"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="68">
   <si>
     <t>Class Name</t>
   </si>
@@ -163,24 +165,24 @@
     <t>private</t>
   </si>
   <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>customerId</t>
+  </si>
+  <si>
+    <t>productCount</t>
+  </si>
+  <si>
     <t>productId</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
-    <t>productCount</t>
-  </si>
-  <si>
-    <t>customerId</t>
-  </si>
-  <si>
     <t>Source Class Name</t>
   </si>
   <si>
@@ -212,6 +214,18 @@
   </si>
   <si>
     <t>Target Field Name</t>
+  </si>
+  <si>
+    <t>Number of Lines</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -631,6 +645,224 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D1"/>
@@ -705,7 +937,7 @@
         <v>46</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -719,7 +951,7 @@
         <v>46</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -733,7 +965,7 @@
         <v>46</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">

--- a/data/sample-spring-kafka-microservices/base-domain_structure.xlsx
+++ b/data/sample-spring-kafka-microservices/base-domain_structure.xlsx
@@ -159,28 +159,28 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>customerId</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
     <t>source</t>
   </si>
   <si>
-    <t>private</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>customerId</t>
+    <t>productId</t>
   </si>
   <si>
     <t>productCount</t>
-  </si>
-  <si>
-    <t>productId</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>id</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -937,7 +937,7 @@
         <v>46</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -951,7 +951,7 @@
         <v>46</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -965,7 +965,7 @@
         <v>46</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -979,7 +979,7 @@
         <v>46</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -993,7 +993,7 @@
         <v>46</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -1007,7 +1007,7 @@
         <v>46</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data/sample-spring-kafka-microservices/base-domain_structure.xlsx
+++ b/data/sample-spring-kafka-microservices/base-domain_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="73">
   <si>
     <t>Class Name</t>
   </si>
@@ -159,30 +159,30 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>productCount</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>productId</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
     <t>status</t>
   </si>
   <si>
-    <t>private</t>
+    <t>source</t>
   </si>
   <si>
     <t>customerId</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>productId</t>
-  </si>
-  <si>
-    <t>productCount</t>
-  </si>
-  <si>
     <t>Source Class Name</t>
   </si>
   <si>
@@ -219,13 +219,28 @@
     <t>Number of Lines</t>
   </si>
   <si>
-    <t>71</t>
+    <t>68</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
+    <t>Order()</t>
+  </si>
+  <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>Order(java.lang.Long, java.lang.Long, java.lang.Long, java.lang.String)</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Order(java.lang.Long, java.lang.Long, java.lang.Long, int, int)</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
 </sst>
 </file>
@@ -676,7 +691,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -855,7 +870,40 @@
         <v>27</v>
       </c>
       <c r="C16" t="s" s="0">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s" s="0">
         <v>67</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -923,7 +971,7 @@
         <v>46</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -993,7 +1041,7 @@
         <v>46</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -1007,7 +1055,7 @@
         <v>46</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/sample-spring-kafka-microservices/base-domain_structure.xlsx
+++ b/data/sample-spring-kafka-microservices/base-domain_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="70">
   <si>
     <t>Class Name</t>
   </si>
@@ -108,9 +108,15 @@
     <t>toString()</t>
   </si>
   <si>
+    <t>Order(java.lang.Long, java.lang.Long, java.lang.Long, java.lang.String)</t>
+  </si>
+  <si>
     <t>setPrice(int)</t>
   </si>
   <si>
+    <t>Order()</t>
+  </si>
+  <si>
     <t>getClass()</t>
   </si>
   <si>
@@ -129,6 +135,9 @@
     <t>notify()</t>
   </si>
   <si>
+    <t>Order(java.lang.Long, java.lang.Long, java.lang.Long, int, int)</t>
+  </si>
+  <si>
     <t>wait(long)</t>
   </si>
   <si>
@@ -159,30 +168,30 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>customerId</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
     <t>productCount</t>
   </si>
   <si>
-    <t>private</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>price</t>
   </si>
   <si>
     <t>productId</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
-    <t>customerId</t>
-  </si>
-  <si>
     <t>Source Class Name</t>
   </si>
   <si>
@@ -223,24 +232,6 @@
   </si>
   <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>Order()</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Order(java.lang.Long, java.lang.Long, java.lang.Long, java.lang.String)</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Order(java.lang.Long, java.lang.Long, java.lang.Long, int, int)</t>
-  </si>
-  <si>
-    <t>8</t>
   </si>
 </sst>
 </file>
@@ -285,7 +276,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -554,7 +545,7 @@
         <v>6</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -562,7 +553,7 @@
         <v>4</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>6</v>
@@ -576,13 +567,13 @@
         <v>4</v>
       </c>
       <c r="B21" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s" s="0">
         <v>32</v>
-      </c>
-      <c r="C21" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s" s="0">
-        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -649,10 +640,52 @@
         <v>37</v>
       </c>
       <c r="C26" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D26" t="s" s="0">
-        <v>38</v>
+      <c r="D29" t="s" s="0">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -673,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">
@@ -681,7 +714,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -691,7 +724,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -705,7 +738,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">
@@ -716,7 +749,7 @@
         <v>18</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
@@ -727,7 +760,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
@@ -738,7 +771,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -749,7 +782,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
@@ -760,7 +793,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
@@ -768,10 +801,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
@@ -782,7 +815,7 @@
         <v>19</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9">
@@ -793,7 +826,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
@@ -804,7 +837,7 @@
         <v>26</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -812,10 +845,10 @@
         <v>4</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12">
@@ -826,7 +859,7 @@
         <v>24</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
@@ -837,7 +870,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14">
@@ -848,7 +881,7 @@
         <v>17</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15">
@@ -856,10 +889,10 @@
         <v>4</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16">
@@ -870,40 +903,7 @@
         <v>27</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>71</v>
-      </c>
-      <c r="C19" t="s" s="0">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -921,13 +921,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s" s="0">
         <v>3</v>
@@ -951,13 +951,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -965,13 +965,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -979,13 +979,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -993,13 +993,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -1007,13 +1007,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="C5" t="s" s="0">
-        <v>46</v>
-      </c>
       <c r="D5" t="s" s="0">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -1021,13 +1021,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -1035,13 +1035,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -1049,13 +1049,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1073,19 +1073,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1103,19 +1103,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1133,19 +1133,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s" s="0">
         <v>60</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>61</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1163,19 +1163,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s" s="0">
         <v>60</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>61</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>58</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>59</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1193,19 +1193,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1223,19 +1223,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/data/sample-spring-kafka-microservices/base-domain_structure.xlsx
+++ b/data/sample-spring-kafka-microservices/base-domain_structure.xlsx
@@ -168,28 +168,28 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>productId</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>productCount</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
     <t>customerId</t>
   </si>
   <si>
-    <t>private</t>
-  </si>
-  <si>
-    <t>productCount</t>
-  </si>
-  <si>
     <t>id</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>productId</t>
-  </si>
-  <si>
-    <t>source</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -985,7 +985,7 @@
         <v>49</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -999,7 +999,7 @@
         <v>49</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -1013,7 +1013,7 @@
         <v>49</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -1027,7 +1027,7 @@
         <v>49</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -1055,7 +1055,7 @@
         <v>49</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/sample-spring-kafka-microservices/base-domain_structure.xlsx
+++ b/data/sample-spring-kafka-microservices/base-domain_structure.xlsx
@@ -168,25 +168,25 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>productCount</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>customerId</t>
+  </si>
+  <si>
     <t>productId</t>
   </si>
   <si>
-    <t>private</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
     <t>price</t>
-  </si>
-  <si>
-    <t>productCount</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>customerId</t>
   </si>
   <si>
     <t>id</t>
@@ -971,7 +971,7 @@
         <v>49</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -985,7 +985,7 @@
         <v>49</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -999,7 +999,7 @@
         <v>49</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -1013,7 +1013,7 @@
         <v>49</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -1027,7 +1027,7 @@
         <v>49</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -1041,7 +1041,7 @@
         <v>49</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
